--- a/biology/Botanique/Parinari_montana/Parinari_montana.xlsx
+++ b/biology/Botanique/Parinari_montana/Parinari_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parinari montana est une espèce de plantes à fleurs de la famille des Chrysobalanaceae.
 C'est un arbre.
-En Guyane, on l'appelle Graine roche (Créole), Mutsengue tsengue, Ama nimba (Nenge tongo), pajura-grande (Portugais), Burada, Wild potato (Guyana : nom générique), Foengoe (Sranan tongo), Karapa porö (Kali'na), Pirivri (Palikur), Ɨwatà'ɨy (Wayãpi)[2], Iwatàrîy (Teko), Bourada (Arawak)[3].
-Il est connu au Brésil sous les noms de Pajurâ, Paranary (Portugais)[4], Básev Abi, Kórkor Sev (Cacoal)[5], Kamô (Kayapó)[6].
+En Guyane, on l'appelle Graine roche (Créole), Mutsengue tsengue, Ama nimba (Nenge tongo), pajura-grande (Portugais), Burada, Wild potato (Guyana : nom générique), Foengoe (Sranan tongo), Karapa porö (Kali'na), Pirivri (Palikur), Ɨwatà'ɨy (Wayãpi), Iwatàrîy (Teko), Bourada (Arawak).
+Il est connu au Brésil sous les noms de Pajurâ, Paranary (Portugais), Básev Abi, Kórkor Sev (Cacoal), Kamô (Kayapó).
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parinari montana est un arbre atteignant 10-40 m.
 Les jeunes branches sont couverte d'une pilosité roussâtre plus ou moins dense, devenant glabres et lenticellées avec l'âge.
-Son bois est de couleur brun rose plus ou moins clair, dur et lourd (densité : 0,80 à 0,90), et contient d'abondants et gros corpuscules de silice[7].
+Son bois est de couleur brun rose plus ou moins clair, dur et lourd (densité : 0,80 à 0,90), et contient d'abondants et gros corpuscules de silice.
 Les feuilles simples, alternes, portent des stipules caduques, longues de 1-3 mm (très grandes chez les jeunes individus).
 Le limbe mesure 9-17(18) x 3-6,5(8) cm, et est très coriace, vert brillant et glabre sur le dessus, tomenteux blanc et avec des cavités stomatales en dessous, de forme oblongue à oblongue-lancéolées, à base arrondie à la sous-aiguë, et à apex acuminé long de 5 à 9 mm.
 La nervure médiane est imprimée sur la face adaxiale, et pubescente en dessous.
@@ -530,12 +544,12 @@
 La corolle comporte 5 pétales blancs, plus courts que les lobes du calice.
 On compte 7 étamines fertiles, avec 7-8 staminodes qui leur font face.
 L'ovaire et la partie inférieure du style sont hirsutes.
-Le fruit de forme globuleuse, ovoïde, ellipsoïde à oblongue, est long de 8 à 10(15) cm (le plus grand fruit parmi les Chrysobalanaceae amazoniennes[4]).
+Le fruit de forme globuleuse, ovoïde, ellipsoïde à oblongue, est long de 8 à 10(15) cm (le plus grand fruit parmi les Chrysobalanaceae amazoniennes).
 L'épicarpe est densément verruqueux, à surface souvent très irrégulière.
 Le mésocarpe est comestible, doux et odorant, charnu, oléagineux, charnu, mince ou épais, de couleur brun-jaunâtre clair, et à texture granuleuse.
 L'endocarpe dur et très épais, profondément strié et irrégulièrement et grossièrement épineux, en forme de cerveau, à l'un de ses deux locules à peine marqué, laineux à l'intérieur (rappelant celui de Saccoglottis verrucosa).
 La graine est comestible.
-Les fruits récoltés sous l'arbre sont rarement en bon état, et fermentent rapidement après avoir atteint leur pleine maturité[4],[8],[9],[10].
+Les fruits récoltés sous l'arbre sont rarement en bon état, et fermentent rapidement après avoir atteint leur pleine maturité.
 </t>
         </is>
       </c>
@@ -564,9 +578,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parinari montana est peu commun, mais largement réparti dans le nord de l'Amazonie brésilienne et en Guyane[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parinari montana est peu commun, mais largement réparti dans le nord de l'Amazonie brésilienne et en Guyane.
 </t>
         </is>
       </c>
@@ -595,13 +611,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parinari montana croît dans les forêts de terre ferme (non inondées), fleurit en septembre et fructifie en novembre en Guyane[8].
-On a isolé des levures originales sur les fruits de Parinari montana[11]
-Parinari montana est pollinisé par des abeilles (Mellitophilie)[12].
-L'huile des graines de Parinari montana contient majoritairement de l'acide α-Eleostearique (environ 36%)[13].
-Les grosses graines de Parinari montana (147,6 g) étaient autrefois disséminées par la mégafaune aujourd'hui éteinte[14],[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parinari montana croît dans les forêts de terre ferme (non inondées), fleurit en septembre et fructifie en novembre en Guyane.
+On a isolé des levures originales sur les fruits de Parinari montana
+Parinari montana est pollinisé par des abeilles (Mellitophilie).
+L'huile des graines de Parinari montana contient majoritairement de l'acide α-Eleostearique (environ 36%).
+Les grosses graines de Parinari montana (147,6 g) étaient autrefois disséminées par la mégafaune aujourd'hui éteinte,.
 </t>
         </is>
       </c>
@@ -630,10 +648,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de Parinari montana sont comestibles, parfumés[2], consommés notamment chez les Kayapó (qui le cultivent et l'utilisent aussi pour le jeu)[6]. La collecte de ces fruits a été étudiée[16]. Ses amandes sont consommées crues[3].
-Dans le Rondônia chez les communautés Cacoal, l'écorce de racine de Parinari montana macérée constitue un remède contre les troubles de la digestion (diarrhée)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de Parinari montana sont comestibles, parfumés, consommés notamment chez les Kayapó (qui le cultivent et l'utilisent aussi pour le jeu). La collecte de ces fruits a été étudiée. Ses amandes sont consommées crues.
+Dans le Rondônia chez les communautés Cacoal, l'écorce de racine de Parinari montana macérée constitue un remède contre les troubles de la digestion (diarrhée).
 </t>
         </is>
       </c>
@@ -662,9 +682,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[17] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant :
 « PARINARI (montana) foliis ovatis, acuminatis, magno fructu. (Tabula 204-205.)
 Arbor altiſſima, trunco octoginta-pedali, ad ſummitatem ramos craſſiſſimos, latè ſparſos, emittente ; ramulis villoſis, rufeſcentibus.
 Folia ovata, acuminata, integerrima, infernè tomenſo candicante obiita. Stipulæ duæ, latæ, oblongæ, acutæ, decidual, ad baſim petiolorum, ſemi-amplexi-caules. Flores racemoſo-terminales, pedunculus communis tomentoſus &amp; incanus. Pedunculi partiales, &amp; particulares quaſi articulati ſunt, &amp; tomento candicante veſtiti : ſingulus flos è ſinu duarum ſquamarum exit. Squamæ &amp; galix tomento candicante nitent. Corolla ; petala alba. Drupa glabra, fulva ; cortex craſſus, acidus ; nucleus unicus in ſingulo loculo putaminis dulcis, &amp; edulis. Quandoque semen unicum loculi abortitur.
